--- a/ProjectDoc/RSC Spreadsheet.xlsx
+++ b/ProjectDoc/RSC Spreadsheet.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roger Peterson\SkyDrive\Documents\St Thomas\SEIS 610 Software Engineering\GP Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="12540" windowHeight="7605"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Module</t>
   </si>
@@ -103,21 +108,15 @@
   <si>
     <t xml:space="preserve"> U/n + H/n</t>
   </si>
-  <si>
-    <t>221 /13 +</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 49.948/ 13</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -212,12 +211,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -264,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,9 +306,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,6 +341,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,20 +517,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48">
+    <row r="1" spans="1:6" ht="48" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -538,7 +550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -549,19 +561,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <f>POWER(C2,2)</f>
+        <f t="shared" ref="D2:D8" si="0">POWER(C2,2)</f>
         <v>9</v>
       </c>
       <c r="E2" s="6">
-        <f>B2/(C2+1)</f>
+        <f t="shared" ref="E2:E8" si="1">B2/(C2+1)</f>
         <v>0.75</v>
       </c>
       <c r="F2" s="9">
-        <f>1/(E2)</f>
+        <f t="shared" ref="F2:F8" si="2">1/(E2)</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -572,19 +584,19 @@
         <v>3</v>
       </c>
       <c r="D3" s="4">
-        <f>POWER(C3,2)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E3" s="6">
-        <f>B3/(C3+1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F3" s="9">
-        <f>1/(E3)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -595,19 +607,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <f>POWER(C4,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <f>B4/(C4+1)</f>
+        <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
       <c r="F4" s="9">
-        <f>1/(E4)</f>
+        <f t="shared" si="2"/>
         <v>4.4444444444444446E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -618,19 +630,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <f>POWER(C5,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5" s="6">
-        <f>B5/(C5+1)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="F5" s="9">
-        <f>1/(E5)</f>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -641,19 +653,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <f>POWER(C6,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <f>B6/(C6+1)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="F6" s="4">
-        <f>1/(E6)</f>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -664,19 +676,19 @@
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <f>POWER(C7,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <f>B7/(C7+1)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="F7" s="4">
-        <f>1/(E7)</f>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="75">
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -687,19 +699,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="4">
-        <f>POWER(C8,2)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E8" s="4">
-        <f>B8/(C8+1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F8" s="4">
-        <f>1/(E8)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -710,19 +722,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ref="D9:D13" si="0">POWER(C9,2)</f>
+        <f t="shared" ref="D9:D13" si="3">POWER(C9,2)</f>
         <v>16</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E13" si="1">B9/(C9+1)</f>
+        <f t="shared" ref="E9:E13" si="4">B9/(C9+1)</f>
         <v>3.2</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" ref="F9:F14" si="2">1/(E9)</f>
+        <f t="shared" ref="F9:F13" si="5">1/(E9)</f>
         <v>0.3125</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -733,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -756,19 +768,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -779,19 +791,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -802,19 +814,19 @@
         <v>8</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -831,14 +843,14 @@
         <v>17.523611111111109</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>18</v>
@@ -851,29 +863,32 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
+      <c r="E17" s="3">
+        <f>D14/12</f>
+        <v>18.416666666666668</v>
+      </c>
+      <c r="F17" s="3">
+        <f>E14/12</f>
+        <v>3.6623346560846568</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="3">
-        <v>20.38</v>
+      <c r="E18" s="11">
+        <f>SUM(E4,F4)</f>
+        <v>22.544444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -883,24 +898,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
